--- a/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.7#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaore7_day_halfhour" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
+    <sheet name="_jhNo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>7# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -664,9 +664,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -780,37 +780,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="20"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -824,17 +796,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,6 +812,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -856,46 +835,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -913,6 +861,58 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -943,8 +943,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -955,20 +967,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -979,14 +979,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -997,14 +997,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1021,14 +1021,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1039,8 +1033,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1051,14 +1075,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1069,8 +1087,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -1081,50 +1117,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
   </fills>
@@ -1319,6 +1319,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1337,8 +1346,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,21 +1363,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,6 +1387,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1407,15 +1416,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1425,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1437,134 +1437,134 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="18">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="15">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="21">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
@@ -1253,7 +1253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1506,6 +1506,21 @@
         <color theme="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1828,37 +1843,37 @@
     <xf fontId="34" fillId="0" borderId="19" numFmtId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="34" fillId="0" borderId="19" numFmtId="164" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="34" fillId="0" borderId="20" numFmtId="164" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="34" fillId="0" borderId="19" numFmtId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="34" fillId="0" borderId="20" numFmtId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="34" fillId="0" borderId="21" numFmtId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="36" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="36" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="37" fillId="0" borderId="22" numFmtId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="37" fillId="0" borderId="23" numFmtId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="24" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="23" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="36" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="36" fillId="0" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16349,39 +16364,39 @@
         <v/>
       </c>
       <c r="D60" s="38" t="str">
-        <f>IFERROR(D27-D11,"")</f>
+        <f>IFERROR(IF(D11&gt;D27,D27,D27-D11),"")</f>
         <v/>
       </c>
       <c r="E60" s="37" t="str">
         <f>IF(E12="","",AVERAGE(E12:E27))</f>
         <v/>
       </c>
-      <c r="F60" s="39" t="str">
-        <f>IFERROR(F27-F11,"")</f>
+      <c r="F60" s="38" t="str">
+        <f>IFERROR(IF(F11&gt;F27,F27,F27-F11),"")</f>
         <v/>
       </c>
       <c r="G60" s="37" t="str">
         <f>IF(G12="","",AVERAGE(G12:G27))</f>
         <v/>
       </c>
-      <c r="H60" s="39" t="str">
-        <f>IFERROR(H27-H11,"")</f>
+      <c r="H60" s="38" t="str">
+        <f>IFERROR(IF(H11&gt;H27,H27,H27-H11),"")</f>
         <v/>
       </c>
       <c r="I60" s="37" t="str">
         <f>IF(I12="","",AVERAGE(I12:I27))</f>
         <v/>
       </c>
-      <c r="J60" s="39" t="str">
-        <f>IFERROR(J27-J11,"")</f>
+      <c r="J60" s="38" t="str">
+        <f>IFERROR(IF(J11&gt;J27,J27,J27-J11),"")</f>
         <v/>
       </c>
       <c r="K60" s="37" t="str">
         <f>IF(K12="","",AVERAGE(K12:K27))</f>
         <v/>
       </c>
-      <c r="L60" s="39" t="str">
-        <f>IFERROR(L27-L11,"")</f>
+      <c r="L60" s="38" t="str">
+        <f>IFERROR(IF(L11&gt;L27,L27,L27-L11),"")</f>
         <v/>
       </c>
       <c r="M60" s="37" t="str">
@@ -16542,7 +16557,7 @@
         <f>IF(E28="","",AVERAGE(E28:E43))</f>
         <v/>
       </c>
-      <c r="F61" s="39" t="str">
+      <c r="F61" s="38" t="str">
         <f>IFERROR(F43-F27,"")</f>
         <v/>
       </c>
@@ -16550,7 +16565,7 @@
         <f>IF(G28="","",AVERAGE(G28:G43))</f>
         <v/>
       </c>
-      <c r="H61" s="39" t="str">
+      <c r="H61" s="38" t="str">
         <f>IFERROR(H43-H27,"")</f>
         <v/>
       </c>
@@ -16558,7 +16573,7 @@
         <f>IF(I28="","",AVERAGE(I28:I43))</f>
         <v/>
       </c>
-      <c r="J61" s="39" t="str">
+      <c r="J61" s="38" t="str">
         <f>IFERROR(J43-J27,"")</f>
         <v/>
       </c>
@@ -16566,7 +16581,7 @@
         <f>IF(K28="","",AVERAGE(K28:K43))</f>
         <v/>
       </c>
-      <c r="L61" s="39" t="str">
+      <c r="L61" s="38" t="str">
         <f>IFERROR(L43-L27,"")</f>
         <v/>
       </c>
@@ -16728,7 +16743,7 @@
         <f>IF(E44="","",AVERAGE(E44:E59))</f>
         <v/>
       </c>
-      <c r="F62" s="39" t="str">
+      <c r="F62" s="38" t="str">
         <f>IFERROR(F59-F43,"")</f>
         <v/>
       </c>
@@ -16736,7 +16751,7 @@
         <f>IF(G44="","",AVERAGE(G44:G59))</f>
         <v/>
       </c>
-      <c r="H62" s="39" t="str">
+      <c r="H62" s="38" t="str">
         <f>IFERROR(H59-H43,"")</f>
         <v/>
       </c>
@@ -16744,7 +16759,7 @@
         <f>IF(I44="","",AVERAGE(I44:I59))</f>
         <v/>
       </c>
-      <c r="J62" s="39" t="str">
+      <c r="J62" s="38" t="str">
         <f>IFERROR(J59-J43,"")</f>
         <v/>
       </c>
@@ -16752,7 +16767,7 @@
         <f>IF(K44="","",AVERAGE(K44:K59))</f>
         <v/>
       </c>
-      <c r="L62" s="39" t="str">
+      <c r="L62" s="38" t="str">
         <f>IFERROR(L59-L43,"")</f>
         <v/>
       </c>
@@ -16907,39 +16922,39 @@
         <v/>
       </c>
       <c r="D63" s="44" t="str">
-        <f>IFERROR(D59-D11,"")</f>
+        <f>IFERROR(IF((D59-D11)&gt;10,D59-D11,D59),"")</f>
         <v/>
       </c>
       <c r="E63" s="43" t="str">
         <f>IF(E12="","",AVERAGE(E12:E59))</f>
         <v/>
       </c>
-      <c r="F63" s="45" t="str">
-        <f>IFERROR(F59-F11,"")</f>
+      <c r="F63" s="44" t="str">
+        <f>IFERROR(IF((F59-F11)&gt;10,F59-F11,F59),"")</f>
         <v/>
       </c>
       <c r="G63" s="43" t="str">
         <f>IF(G12="","",AVERAGE(G12:G59))</f>
         <v/>
       </c>
-      <c r="H63" s="45" t="str">
-        <f>IFERROR(H59-H11,"")</f>
+      <c r="H63" s="44" t="str">
+        <f>IFERROR(IF((H59-H11)&gt;10,H59-H11,H59),"")</f>
         <v/>
       </c>
       <c r="I63" s="43" t="str">
         <f>IF(I12="","",AVERAGE(I12:I59))</f>
         <v/>
       </c>
-      <c r="J63" s="45" t="str">
-        <f>IFERROR(J59-J11,"")</f>
+      <c r="J63" s="44" t="str">
+        <f>IFERROR(IF((J59-J11)&gt;10,J59-J11,J59),"")</f>
         <v/>
       </c>
       <c r="K63" s="43" t="str">
         <f>IF(K12="","",AVERAGE(K12:K59))</f>
         <v/>
       </c>
-      <c r="L63" s="45" t="str">
-        <f>IFERROR(L59-L11,"")</f>
+      <c r="L63" s="44" t="str">
+        <f>IFERROR(IF((L59-L11)&gt;10,L59-L11,L59),"")</f>
         <v/>
       </c>
       <c r="M63" s="43" t="str">

--- a/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
+++ b/excel/finished/焦化/CK67-炼焦-7#焦炉加热制度报表（日）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t xml:space="preserve">7# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -290,10 +290,13 @@
     <t>管控范围</t>
   </si>
   <si>
-    <t>±200</t>
+    <t>±500</t>
   </si>
   <si>
     <t>±100</t>
+  </si>
+  <si>
+    <t>±200</t>
   </si>
   <si>
     <t>±150</t>
@@ -6885,34 +6888,34 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O7" s="26"/>
       <c r="P7" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W7" s="26"/>
       <c r="X7" s="26"/>
       <c r="Y7" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="26"/>
       <c r="AA7" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="26"/>
@@ -6924,14 +6927,14 @@
       <c r="AI7" s="26"/>
       <c r="AJ7" s="26"/>
       <c r="AK7" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL7" s="24"/>
       <c r="AM7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO7" s="18"/>
       <c r="AP7" s="18"/>
@@ -6944,10 +6947,10 @@
     </row>
     <row ht="18.75" hidden="1" r="8">
       <c r="B8" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18">
@@ -7023,10 +7026,10 @@
     </row>
     <row ht="18.75" hidden="1" r="9">
       <c r="B9" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18">
@@ -7102,148 +7105,148 @@
     </row>
     <row ht="30" customHeight="1" hidden="1" r="10">
       <c r="B10" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X10" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA10" s="31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC10" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD10" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE10" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG10" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH10" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI10" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ10" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK10" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL10" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM10" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN10" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO10" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP10" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AQ10" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AR10" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS10" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AT10" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU10" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV10" s="28"/>
     </row>
     <row ht="27" customHeight="1" hidden="1" r="11">
       <c r="B11" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="30" t="str">
         <f>IF(_jiaore7_day_halfhour!A2="","",_jiaore7_day_halfhour!A2)</f>
@@ -16357,7 +16360,7 @@
     </row>
     <row ht="25" customHeight="1" r="60">
       <c r="B60" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="37" t="str">
         <f>IF(C12="","",AVERAGE(C12:C27))</f>
@@ -16543,7 +16546,7 @@
     </row>
     <row ht="25" customHeight="1" r="61">
       <c r="B61" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" s="37" t="str">
         <f>IF(C28="","",AVERAGE(C28:C43))</f>
@@ -16729,7 +16732,7 @@
     </row>
     <row ht="25" customHeight="1" r="62">
       <c r="B62" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="37" t="str">
         <f>IF(C44="","",AVERAGE(C44:C59))</f>
@@ -16915,7 +16918,7 @@
     </row>
     <row ht="25" customHeight="1" r="63">
       <c r="B63" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="43" t="str">
         <f>IF(C12="","",AVERAGE(C12:C59))</f>
@@ -17101,7 +17104,7 @@
     </row>
     <row ht="118.5" customHeight="1" r="64">
       <c r="B64" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
@@ -17114,7 +17117,7 @@
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
       <c r="M64" s="48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N64" s="49"/>
       <c r="O64" s="49"/>
@@ -17127,7 +17130,7 @@
       <c r="V64" s="49"/>
       <c r="W64" s="49"/>
       <c r="X64" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y64" s="49"/>
       <c r="Z64" s="49"/>
@@ -17156,7 +17159,7 @@
     </row>
     <row ht="27.75" customHeight="1" r="65">
       <c r="B65" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
@@ -17169,7 +17172,7 @@
       <c r="K65" s="52"/>
       <c r="L65" s="52"/>
       <c r="M65" s="51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N65" s="53"/>
       <c r="O65" s="53"/>
@@ -17182,7 +17185,7 @@
       <c r="V65" s="53"/>
       <c r="W65" s="53"/>
       <c r="X65" s="54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y65" s="53"/>
       <c r="Z65" s="53"/>
@@ -21177,163 +21180,163 @@
   <sheetData>
     <row ht="45" r="1">
       <c r="A1" s="56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P1" s="56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R1" s="56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S1" s="56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U1" s="56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V1" s="56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W1" s="56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X1" s="56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y1" s="56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z1" s="56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA1" s="56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB1" s="56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC1" s="56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD1" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE1" s="56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF1" s="56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG1" s="56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AH1" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI1" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ1" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK1" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AQ1" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AR1" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AS1" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AU1" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AZ1" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BB1" s="34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -21634,7 +21637,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="0">
         <v>7</v>
